--- a/2022/SAMSUNG/SEPTEMBER/20.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
+++ b/2022/SAMSUNG/SEPTEMBER/20.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2478,7 +2478,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="497">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3402,9 +3402,6 @@
     <xf numFmtId="1" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3672,9 +3669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3780,6 +3774,99 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3789,100 +3876,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3991,8 +3985,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4392,33 +4386,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="418"/>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
-      <c r="F1" s="418"/>
+      <c r="A1" s="416"/>
+      <c r="B1" s="416"/>
+      <c r="C1" s="416"/>
+      <c r="D1" s="416"/>
+      <c r="E1" s="416"/>
+      <c r="F1" s="416"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="419"/>
-      <c r="B2" s="416" t="s">
+      <c r="A2" s="417"/>
+      <c r="B2" s="414" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="417" t="s">
+      <c r="A3" s="417"/>
+      <c r="B3" s="415" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="419"/>
+      <c r="A4" s="417"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4436,7 +4430,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="419"/>
+      <c r="A5" s="417"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4454,7 +4448,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="419"/>
+      <c r="A6" s="417"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4466,7 +4460,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="419"/>
+      <c r="A7" s="417"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4485,7 +4479,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="419"/>
+      <c r="A8" s="417"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4504,7 +4498,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="419"/>
+      <c r="A9" s="417"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4523,7 +4517,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="419"/>
+      <c r="A10" s="417"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4542,7 +4536,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="419"/>
+      <c r="A11" s="417"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4561,7 +4555,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="419"/>
+      <c r="A12" s="417"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4580,7 +4574,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="419"/>
+      <c r="A13" s="417"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4599,7 +4593,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="419"/>
+      <c r="A14" s="417"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4618,7 +4612,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="419"/>
+      <c r="A15" s="417"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4637,7 +4631,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="419"/>
+      <c r="A16" s="417"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4650,7 +4644,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="419"/>
+      <c r="A17" s="417"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4663,7 +4657,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="419"/>
+      <c r="A18" s="417"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4676,7 +4670,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="419"/>
+      <c r="A19" s="417"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4689,7 +4683,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="419"/>
+      <c r="A20" s="417"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4702,7 +4696,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="419"/>
+      <c r="A21" s="417"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4715,7 +4709,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="419"/>
+      <c r="A22" s="417"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4728,7 +4722,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="419"/>
+      <c r="A23" s="417"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4741,7 +4735,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="419"/>
+      <c r="A24" s="417"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4754,7 +4748,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="419"/>
+      <c r="A25" s="417"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4767,7 +4761,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="419"/>
+      <c r="A26" s="417"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4780,7 +4774,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="419"/>
+      <c r="A27" s="417"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4793,7 +4787,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="419"/>
+      <c r="A28" s="417"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4806,7 +4800,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="419"/>
+      <c r="A29" s="417"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4819,7 +4813,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="419"/>
+      <c r="A30" s="417"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4832,7 +4826,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="419"/>
+      <c r="A31" s="417"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4845,7 +4839,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="419"/>
+      <c r="A32" s="417"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4858,7 +4852,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="419"/>
+      <c r="A33" s="417"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4871,7 +4865,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="419"/>
+      <c r="A34" s="417"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4884,7 +4878,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="419"/>
+      <c r="A35" s="417"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4897,7 +4891,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="419"/>
+      <c r="A36" s="417"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4910,7 +4904,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="419"/>
+      <c r="A37" s="417"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4923,7 +4917,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="419"/>
+      <c r="A38" s="417"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4936,7 +4930,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="419"/>
+      <c r="A39" s="417"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4949,7 +4943,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="419"/>
+      <c r="A40" s="417"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4962,7 +4956,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="419"/>
+      <c r="A41" s="417"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4975,7 +4969,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="419"/>
+      <c r="A42" s="417"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4988,7 +4982,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="419"/>
+      <c r="A43" s="417"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -5001,7 +4995,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="419"/>
+      <c r="A44" s="417"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -5014,7 +5008,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="419"/>
+      <c r="A45" s="417"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -5027,7 +5021,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="419"/>
+      <c r="A46" s="417"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -5040,7 +5034,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="419"/>
+      <c r="A47" s="417"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -5053,7 +5047,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="419"/>
+      <c r="A48" s="417"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -5066,7 +5060,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="419"/>
+      <c r="A49" s="417"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5079,7 +5073,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="419"/>
+      <c r="A50" s="417"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -5092,7 +5086,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="419"/>
+      <c r="A51" s="417"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5105,7 +5099,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="419"/>
+      <c r="A52" s="417"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5118,7 +5112,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="419"/>
+      <c r="A53" s="417"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -5131,7 +5125,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="419"/>
+      <c r="A54" s="417"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -5144,7 +5138,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="419"/>
+      <c r="A55" s="417"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -5156,7 +5150,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="419"/>
+      <c r="A56" s="417"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -5168,7 +5162,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="419"/>
+      <c r="A57" s="417"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5180,7 +5174,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="419"/>
+      <c r="A58" s="417"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5192,7 +5186,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="419"/>
+      <c r="A59" s="417"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5204,7 +5198,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="419"/>
+      <c r="A60" s="417"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5216,7 +5210,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="419"/>
+      <c r="A61" s="417"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5228,7 +5222,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="419"/>
+      <c r="A62" s="417"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5240,7 +5234,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="419"/>
+      <c r="A63" s="417"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5252,7 +5246,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="419"/>
+      <c r="A64" s="417"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5264,7 +5258,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="419"/>
+      <c r="A65" s="417"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5276,7 +5270,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="419"/>
+      <c r="A66" s="417"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5288,7 +5282,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="419"/>
+      <c r="A67" s="417"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5300,7 +5294,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="419"/>
+      <c r="A68" s="417"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5312,7 +5306,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="419"/>
+      <c r="A69" s="417"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5324,7 +5318,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="419"/>
+      <c r="A70" s="417"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5336,7 +5330,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="419"/>
+      <c r="A71" s="417"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5348,7 +5342,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="419"/>
+      <c r="A72" s="417"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5360,7 +5354,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="419"/>
+      <c r="A73" s="417"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5372,7 +5366,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="419"/>
+      <c r="A74" s="417"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5384,7 +5378,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="419"/>
+      <c r="A75" s="417"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5396,7 +5390,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="419"/>
+      <c r="A76" s="417"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5408,7 +5402,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="419"/>
+      <c r="A77" s="417"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5420,7 +5414,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="419"/>
+      <c r="A78" s="417"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5432,7 +5426,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="419"/>
+      <c r="A79" s="417"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5444,7 +5438,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="419"/>
+      <c r="A80" s="417"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5456,7 +5450,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="419"/>
+      <c r="A81" s="417"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5468,7 +5462,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="419"/>
+      <c r="A82" s="417"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5480,7 +5474,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="419"/>
+      <c r="A83" s="417"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5537,33 +5531,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="418"/>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
-      <c r="F1" s="418"/>
+      <c r="A1" s="416"/>
+      <c r="B1" s="416"/>
+      <c r="C1" s="416"/>
+      <c r="D1" s="416"/>
+      <c r="E1" s="416"/>
+      <c r="F1" s="416"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="419"/>
-      <c r="B2" s="416" t="s">
+      <c r="A2" s="417"/>
+      <c r="B2" s="414" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="417" t="s">
+      <c r="A3" s="417"/>
+      <c r="B3" s="415" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="419"/>
+      <c r="A4" s="417"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +5575,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="419"/>
+      <c r="A5" s="417"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5599,7 +5593,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="419"/>
+      <c r="A6" s="417"/>
       <c r="B6" s="26" t="s">
         <v>245</v>
       </c>
@@ -5617,7 +5611,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="419"/>
+      <c r="A7" s="417"/>
       <c r="B7" s="26" t="s">
         <v>252</v>
       </c>
@@ -5637,7 +5631,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="419"/>
+      <c r="A8" s="417"/>
       <c r="B8" s="26" t="s">
         <v>254</v>
       </c>
@@ -5657,7 +5651,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="419"/>
+      <c r="A9" s="417"/>
       <c r="B9" s="26" t="s">
         <v>258</v>
       </c>
@@ -5677,7 +5671,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="419"/>
+      <c r="A10" s="417"/>
       <c r="B10" s="26" t="s">
         <v>261</v>
       </c>
@@ -5697,7 +5691,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="419"/>
+      <c r="A11" s="417"/>
       <c r="B11" s="26" t="s">
         <v>267</v>
       </c>
@@ -5717,7 +5711,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="419"/>
+      <c r="A12" s="417"/>
       <c r="B12" s="26" t="s">
         <v>269</v>
       </c>
@@ -5737,7 +5731,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="419"/>
+      <c r="A13" s="417"/>
       <c r="B13" s="26" t="s">
         <v>270</v>
       </c>
@@ -5757,7 +5751,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="419"/>
+      <c r="A14" s="417"/>
       <c r="B14" s="26" t="s">
         <v>273</v>
       </c>
@@ -5777,7 +5771,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="419"/>
+      <c r="A15" s="417"/>
       <c r="B15" s="26" t="s">
         <v>274</v>
       </c>
@@ -5797,7 +5791,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="419"/>
+      <c r="A16" s="417"/>
       <c r="B16" s="26" t="s">
         <v>278</v>
       </c>
@@ -5817,7 +5811,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="419"/>
+      <c r="A17" s="417"/>
       <c r="B17" s="26" t="s">
         <v>294</v>
       </c>
@@ -5837,7 +5831,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="419"/>
+      <c r="A18" s="417"/>
       <c r="B18" s="26" t="s">
         <v>297</v>
       </c>
@@ -5857,7 +5851,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="419"/>
+      <c r="A19" s="417"/>
       <c r="B19" s="26" t="s">
         <v>298</v>
       </c>
@@ -5877,7 +5871,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="419"/>
+      <c r="A20" s="417"/>
       <c r="B20" s="26" t="s">
         <v>299</v>
       </c>
@@ -5897,7 +5891,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="419"/>
+      <c r="A21" s="417"/>
       <c r="B21" s="26" t="s">
         <v>300</v>
       </c>
@@ -5917,7 +5911,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="419"/>
+      <c r="A22" s="417"/>
       <c r="B22" s="26" t="s">
         <v>302</v>
       </c>
@@ -5937,7 +5931,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="419"/>
+      <c r="A23" s="417"/>
       <c r="B23" s="26"/>
       <c r="C23" s="218"/>
       <c r="D23" s="218"/>
@@ -5951,7 +5945,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="419"/>
+      <c r="A24" s="417"/>
       <c r="B24" s="26"/>
       <c r="C24" s="218"/>
       <c r="D24" s="220"/>
@@ -5965,7 +5959,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="419"/>
+      <c r="A25" s="417"/>
       <c r="B25" s="26"/>
       <c r="C25" s="218"/>
       <c r="D25" s="218"/>
@@ -5979,7 +5973,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="419"/>
+      <c r="A26" s="417"/>
       <c r="B26" s="26"/>
       <c r="C26" s="218"/>
       <c r="D26" s="218"/>
@@ -5993,7 +5987,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="419"/>
+      <c r="A27" s="417"/>
       <c r="B27" s="26"/>
       <c r="C27" s="218"/>
       <c r="D27" s="218"/>
@@ -6007,7 +6001,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="419"/>
+      <c r="A28" s="417"/>
       <c r="B28" s="26"/>
       <c r="C28" s="218"/>
       <c r="D28" s="220"/>
@@ -6021,7 +6015,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="419"/>
+      <c r="A29" s="417"/>
       <c r="B29" s="26"/>
       <c r="C29" s="218"/>
       <c r="D29" s="218"/>
@@ -6029,13 +6023,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="420"/>
-      <c r="G29" s="421"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="419"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="419"/>
+      <c r="A30" s="417"/>
       <c r="B30" s="26"/>
       <c r="C30" s="218"/>
       <c r="D30" s="218"/>
@@ -6049,7 +6043,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="419"/>
+      <c r="A31" s="417"/>
       <c r="B31" s="26"/>
       <c r="C31" s="218"/>
       <c r="D31" s="218"/>
@@ -6063,7 +6057,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="419"/>
+      <c r="A32" s="417"/>
       <c r="B32" s="26"/>
       <c r="C32" s="218"/>
       <c r="D32" s="218"/>
@@ -6077,7 +6071,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="419"/>
+      <c r="A33" s="417"/>
       <c r="B33" s="26"/>
       <c r="C33" s="218"/>
       <c r="D33" s="220"/>
@@ -6091,7 +6085,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="419"/>
+      <c r="A34" s="417"/>
       <c r="B34" s="26"/>
       <c r="C34" s="218"/>
       <c r="D34" s="218"/>
@@ -6105,7 +6099,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="419"/>
+      <c r="A35" s="417"/>
       <c r="B35" s="26"/>
       <c r="C35" s="218"/>
       <c r="D35" s="218"/>
@@ -6119,7 +6113,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="419"/>
+      <c r="A36" s="417"/>
       <c r="B36" s="26"/>
       <c r="C36" s="218"/>
       <c r="D36" s="218"/>
@@ -6133,7 +6127,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="419"/>
+      <c r="A37" s="417"/>
       <c r="B37" s="26"/>
       <c r="C37" s="218"/>
       <c r="D37" s="218"/>
@@ -6147,7 +6141,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="419"/>
+      <c r="A38" s="417"/>
       <c r="B38" s="26"/>
       <c r="C38" s="218"/>
       <c r="D38" s="218"/>
@@ -6161,7 +6155,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="419"/>
+      <c r="A39" s="417"/>
       <c r="B39" s="26"/>
       <c r="C39" s="218"/>
       <c r="D39" s="218"/>
@@ -6175,7 +6169,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="419"/>
+      <c r="A40" s="417"/>
       <c r="B40" s="26"/>
       <c r="C40" s="218"/>
       <c r="D40" s="218"/>
@@ -6189,7 +6183,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="419"/>
+      <c r="A41" s="417"/>
       <c r="B41" s="26"/>
       <c r="C41" s="218"/>
       <c r="D41" s="218"/>
@@ -6203,7 +6197,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="419"/>
+      <c r="A42" s="417"/>
       <c r="B42" s="26"/>
       <c r="C42" s="218"/>
       <c r="D42" s="218"/>
@@ -6217,7 +6211,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="419"/>
+      <c r="A43" s="417"/>
       <c r="B43" s="26"/>
       <c r="C43" s="218"/>
       <c r="D43" s="218"/>
@@ -6231,7 +6225,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="419"/>
+      <c r="A44" s="417"/>
       <c r="B44" s="26"/>
       <c r="C44" s="218"/>
       <c r="D44" s="218"/>
@@ -6245,7 +6239,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="419"/>
+      <c r="A45" s="417"/>
       <c r="B45" s="26"/>
       <c r="C45" s="218"/>
       <c r="D45" s="218"/>
@@ -6259,7 +6253,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="419"/>
+      <c r="A46" s="417"/>
       <c r="B46" s="26"/>
       <c r="C46" s="218"/>
       <c r="D46" s="218"/>
@@ -6273,7 +6267,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="419"/>
+      <c r="A47" s="417"/>
       <c r="B47" s="26"/>
       <c r="C47" s="218"/>
       <c r="D47" s="218"/>
@@ -6287,7 +6281,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="419"/>
+      <c r="A48" s="417"/>
       <c r="B48" s="26"/>
       <c r="C48" s="218"/>
       <c r="D48" s="218"/>
@@ -6301,7 +6295,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="419"/>
+      <c r="A49" s="417"/>
       <c r="B49" s="26"/>
       <c r="C49" s="218"/>
       <c r="D49" s="218"/>
@@ -6315,7 +6309,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="419"/>
+      <c r="A50" s="417"/>
       <c r="B50" s="26"/>
       <c r="C50" s="218"/>
       <c r="D50" s="218"/>
@@ -6329,7 +6323,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="419"/>
+      <c r="A51" s="417"/>
       <c r="B51" s="26"/>
       <c r="C51" s="218"/>
       <c r="D51" s="218"/>
@@ -6343,7 +6337,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="419"/>
+      <c r="A52" s="417"/>
       <c r="B52" s="26"/>
       <c r="C52" s="218"/>
       <c r="D52" s="218"/>
@@ -6357,7 +6351,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="419"/>
+      <c r="A53" s="417"/>
       <c r="B53" s="26"/>
       <c r="C53" s="218"/>
       <c r="D53" s="218"/>
@@ -6371,7 +6365,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="419"/>
+      <c r="A54" s="417"/>
       <c r="B54" s="26"/>
       <c r="C54" s="218"/>
       <c r="D54" s="218"/>
@@ -6385,7 +6379,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="419"/>
+      <c r="A55" s="417"/>
       <c r="B55" s="26"/>
       <c r="C55" s="218"/>
       <c r="D55" s="218"/>
@@ -6399,7 +6393,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="419"/>
+      <c r="A56" s="417"/>
       <c r="B56" s="26"/>
       <c r="C56" s="218"/>
       <c r="D56" s="218"/>
@@ -6413,7 +6407,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="419"/>
+      <c r="A57" s="417"/>
       <c r="B57" s="26"/>
       <c r="C57" s="218"/>
       <c r="D57" s="218"/>
@@ -6424,7 +6418,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="419"/>
+      <c r="A58" s="417"/>
       <c r="B58" s="26"/>
       <c r="C58" s="218"/>
       <c r="D58" s="218"/>
@@ -6435,7 +6429,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="419"/>
+      <c r="A59" s="417"/>
       <c r="B59" s="26"/>
       <c r="C59" s="218"/>
       <c r="D59" s="218"/>
@@ -6446,7 +6440,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="419"/>
+      <c r="A60" s="417"/>
       <c r="B60" s="26"/>
       <c r="C60" s="218"/>
       <c r="D60" s="218"/>
@@ -6457,7 +6451,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="419"/>
+      <c r="A61" s="417"/>
       <c r="B61" s="26"/>
       <c r="C61" s="218"/>
       <c r="D61" s="218"/>
@@ -6468,7 +6462,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="419"/>
+      <c r="A62" s="417"/>
       <c r="B62" s="26"/>
       <c r="C62" s="218"/>
       <c r="D62" s="218"/>
@@ -6479,7 +6473,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="419"/>
+      <c r="A63" s="417"/>
       <c r="B63" s="26"/>
       <c r="C63" s="218"/>
       <c r="D63" s="218"/>
@@ -6490,7 +6484,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="419"/>
+      <c r="A64" s="417"/>
       <c r="B64" s="26"/>
       <c r="C64" s="218"/>
       <c r="D64" s="218"/>
@@ -6501,7 +6495,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="419"/>
+      <c r="A65" s="417"/>
       <c r="B65" s="26"/>
       <c r="C65" s="218"/>
       <c r="D65" s="218"/>
@@ -6512,7 +6506,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="419"/>
+      <c r="A66" s="417"/>
       <c r="B66" s="26"/>
       <c r="C66" s="218"/>
       <c r="D66" s="218"/>
@@ -6523,7 +6517,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="419"/>
+      <c r="A67" s="417"/>
       <c r="B67" s="26"/>
       <c r="C67" s="218"/>
       <c r="D67" s="218"/>
@@ -6534,7 +6528,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="419"/>
+      <c r="A68" s="417"/>
       <c r="B68" s="26"/>
       <c r="C68" s="218"/>
       <c r="D68" s="218"/>
@@ -6545,7 +6539,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="419"/>
+      <c r="A69" s="417"/>
       <c r="B69" s="26"/>
       <c r="C69" s="218"/>
       <c r="D69" s="218"/>
@@ -6556,7 +6550,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="419"/>
+      <c r="A70" s="417"/>
       <c r="B70" s="26"/>
       <c r="C70" s="218"/>
       <c r="D70" s="218"/>
@@ -6567,7 +6561,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="419"/>
+      <c r="A71" s="417"/>
       <c r="B71" s="26"/>
       <c r="C71" s="218"/>
       <c r="D71" s="218"/>
@@ -6578,7 +6572,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="419"/>
+      <c r="A72" s="417"/>
       <c r="B72" s="26"/>
       <c r="C72" s="218"/>
       <c r="D72" s="218"/>
@@ -6589,7 +6583,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="419"/>
+      <c r="A73" s="417"/>
       <c r="B73" s="26"/>
       <c r="C73" s="218"/>
       <c r="D73" s="218"/>
@@ -6600,7 +6594,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="419"/>
+      <c r="A74" s="417"/>
       <c r="B74" s="26"/>
       <c r="C74" s="218"/>
       <c r="D74" s="218"/>
@@ -6611,7 +6605,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="419"/>
+      <c r="A75" s="417"/>
       <c r="B75" s="26"/>
       <c r="C75" s="218"/>
       <c r="D75" s="218"/>
@@ -6622,7 +6616,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="419"/>
+      <c r="A76" s="417"/>
       <c r="B76" s="26"/>
       <c r="C76" s="218"/>
       <c r="D76" s="218"/>
@@ -6633,7 +6627,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="419"/>
+      <c r="A77" s="417"/>
       <c r="B77" s="26"/>
       <c r="C77" s="218"/>
       <c r="D77" s="218"/>
@@ -6644,7 +6638,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="419"/>
+      <c r="A78" s="417"/>
       <c r="B78" s="26"/>
       <c r="C78" s="218"/>
       <c r="D78" s="218"/>
@@ -6655,7 +6649,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="419"/>
+      <c r="A79" s="417"/>
       <c r="B79" s="26"/>
       <c r="C79" s="218"/>
       <c r="D79" s="218"/>
@@ -6667,7 +6661,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="419"/>
+      <c r="A80" s="417"/>
       <c r="B80" s="26"/>
       <c r="C80" s="218"/>
       <c r="D80" s="218"/>
@@ -6679,7 +6673,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="419"/>
+      <c r="A81" s="417"/>
       <c r="B81" s="26"/>
       <c r="C81" s="218"/>
       <c r="D81" s="218"/>
@@ -6691,7 +6685,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="419"/>
+      <c r="A82" s="417"/>
       <c r="B82" s="26"/>
       <c r="C82" s="218"/>
       <c r="D82" s="218"/>
@@ -6703,7 +6697,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="419"/>
+      <c r="A83" s="417"/>
       <c r="B83" s="31"/>
       <c r="C83" s="219">
         <f>SUM(C5:C72)</f>
@@ -6767,67 +6761,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="426" t="s">
+      <c r="A1" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="426"/>
-      <c r="C1" s="426"/>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
-      <c r="N1" s="426"/>
-      <c r="O1" s="426"/>
-      <c r="P1" s="426"/>
-      <c r="Q1" s="426"/>
+      <c r="B1" s="424"/>
+      <c r="C1" s="424"/>
+      <c r="D1" s="424"/>
+      <c r="E1" s="424"/>
+      <c r="F1" s="424"/>
+      <c r="G1" s="424"/>
+      <c r="H1" s="424"/>
+      <c r="I1" s="424"/>
+      <c r="J1" s="424"/>
+      <c r="K1" s="424"/>
+      <c r="L1" s="424"/>
+      <c r="M1" s="424"/>
+      <c r="N1" s="424"/>
+      <c r="O1" s="424"/>
+      <c r="P1" s="424"/>
+      <c r="Q1" s="424"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="427" t="s">
+      <c r="A2" s="425" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="427"/>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
-      <c r="G2" s="427"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="427"/>
-      <c r="K2" s="427"/>
-      <c r="L2" s="427"/>
-      <c r="M2" s="427"/>
-      <c r="N2" s="427"/>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
+      <c r="B2" s="425"/>
+      <c r="C2" s="425"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="425"/>
+      <c r="H2" s="425"/>
+      <c r="I2" s="425"/>
+      <c r="J2" s="425"/>
+      <c r="K2" s="425"/>
+      <c r="L2" s="425"/>
+      <c r="M2" s="425"/>
+      <c r="N2" s="425"/>
+      <c r="O2" s="425"/>
+      <c r="P2" s="425"/>
+      <c r="Q2" s="425"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="426" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="429"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="429"/>
-      <c r="E3" s="429"/>
-      <c r="F3" s="429"/>
-      <c r="G3" s="429"/>
-      <c r="H3" s="429"/>
-      <c r="I3" s="429"/>
-      <c r="J3" s="429"/>
-      <c r="K3" s="429"/>
-      <c r="L3" s="429"/>
-      <c r="M3" s="429"/>
-      <c r="N3" s="429"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="429"/>
-      <c r="Q3" s="430"/>
+      <c r="B3" s="427"/>
+      <c r="C3" s="427"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="427"/>
+      <c r="F3" s="427"/>
+      <c r="G3" s="427"/>
+      <c r="H3" s="427"/>
+      <c r="I3" s="427"/>
+      <c r="J3" s="427"/>
+      <c r="K3" s="427"/>
+      <c r="L3" s="427"/>
+      <c r="M3" s="427"/>
+      <c r="N3" s="427"/>
+      <c r="O3" s="427"/>
+      <c r="P3" s="427"/>
+      <c r="Q3" s="428"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6836,50 +6830,50 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="431" t="s">
+      <c r="A4" s="429" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="433" t="s">
+      <c r="B4" s="431" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="422" t="s">
+      <c r="C4" s="420" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="422" t="s">
+      <c r="D4" s="420" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="422" t="s">
+      <c r="E4" s="420" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="422" t="s">
+      <c r="F4" s="420" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="422" t="s">
+      <c r="G4" s="420" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="422" t="s">
+      <c r="H4" s="420" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="422"/>
-      <c r="J4" s="422" t="s">
+      <c r="I4" s="420"/>
+      <c r="J4" s="420" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="422" t="s">
+      <c r="K4" s="420" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="422" t="s">
+      <c r="L4" s="420" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="422" t="s">
+      <c r="M4" s="420" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="422" t="s">
+      <c r="N4" s="420" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="424" t="s">
+      <c r="O4" s="422" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="433" t="s">
         <v>296</v>
       </c>
       <c r="Q4" s="116" t="s">
@@ -6892,22 +6886,22 @@
       <c r="W4" s="63"/>
     </row>
     <row r="5" spans="1:24" s="61" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="432"/>
-      <c r="B5" s="434"/>
-      <c r="C5" s="423"/>
-      <c r="D5" s="423"/>
-      <c r="E5" s="423"/>
-      <c r="F5" s="423"/>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="423"/>
-      <c r="K5" s="423"/>
-      <c r="L5" s="423"/>
-      <c r="M5" s="423"/>
-      <c r="N5" s="423"/>
-      <c r="O5" s="425"/>
-      <c r="P5" s="436"/>
+      <c r="A5" s="430"/>
+      <c r="B5" s="432"/>
+      <c r="C5" s="421"/>
+      <c r="D5" s="421"/>
+      <c r="E5" s="421"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="421"/>
+      <c r="H5" s="421"/>
+      <c r="I5" s="421"/>
+      <c r="J5" s="421"/>
+      <c r="K5" s="421"/>
+      <c r="L5" s="421"/>
+      <c r="M5" s="421"/>
+      <c r="N5" s="421"/>
+      <c r="O5" s="423"/>
+      <c r="P5" s="434"/>
       <c r="Q5" s="117" t="s">
         <v>36</v>
       </c>
@@ -9942,13 +9936,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9961,6 +9948,13 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9973,8 +9967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1329"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10000,14 +9994,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="440" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="444"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="442"/>
       <c r="G1" s="54"/>
       <c r="H1" s="133"/>
       <c r="I1" s="133"/>
@@ -10100,14 +10094,14 @@
       <c r="CR1" s="128"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="445" t="s">
+      <c r="A2" s="443" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="446"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
-      <c r="E2" s="446"/>
-      <c r="F2" s="447"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="445"/>
       <c r="G2" s="54"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133"/>
@@ -10200,14 +10194,14 @@
       <c r="CR2" s="128"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="448" t="s">
+      <c r="A3" s="446" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="449"/>
-      <c r="C3" s="449"/>
-      <c r="D3" s="449"/>
-      <c r="E3" s="449"/>
-      <c r="F3" s="450"/>
+      <c r="B3" s="447"/>
+      <c r="C3" s="447"/>
+      <c r="D3" s="447"/>
+      <c r="E3" s="447"/>
+      <c r="F3" s="448"/>
       <c r="G3" s="54"/>
       <c r="H3" s="133"/>
       <c r="I3" s="133"/>
@@ -13590,12 +13584,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="123"/>
-      <c r="B35" s="439" t="s">
+      <c r="B35" s="437" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="439"/>
-      <c r="D35" s="439"/>
-      <c r="E35" s="439"/>
+      <c r="C35" s="437"/>
+      <c r="D35" s="437"/>
+      <c r="E35" s="437"/>
       <c r="F35" s="124"/>
       <c r="G35" s="129"/>
       <c r="H35" s="130"/>
@@ -13706,7 +13700,7 @@
       </c>
       <c r="F36" s="171">
         <f>F33-D91+K93</f>
-        <v>0</v>
+        <v>19807</v>
       </c>
       <c r="G36" s="129"/>
       <c r="H36" s="134"/>
@@ -13809,7 +13803,7 @@
       <c r="C37" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="338">
+      <c r="D37" s="337">
         <v>16000</v>
       </c>
       <c r="E37" s="282" t="s">
@@ -14346,7 +14340,7 @@
       <c r="B42" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="339" t="s">
+      <c r="C42" s="338" t="s">
         <v>232</v>
       </c>
       <c r="D42" s="194">
@@ -14464,9 +14458,9 @@
         <v>278</v>
       </c>
       <c r="F43" s="124"/>
-      <c r="G43" s="440"/>
-      <c r="H43" s="440"/>
-      <c r="I43" s="440"/>
+      <c r="G43" s="438"/>
+      <c r="H43" s="438"/>
+      <c r="I43" s="438"/>
       <c r="J43" s="54"/>
       <c r="K43" s="133"/>
       <c r="L43" s="54"/>
@@ -14556,19 +14550,19 @@
       <c r="CR43" s="128"/>
     </row>
     <row r="44" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A44" s="385" t="s">
+      <c r="A44" s="384" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="385" t="s">
+      <c r="B44" s="384" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="386" t="s">
+      <c r="C44" s="385" t="s">
         <v>283</v>
       </c>
-      <c r="D44" s="387">
+      <c r="D44" s="386">
         <v>26170</v>
       </c>
-      <c r="E44" s="388" t="s">
+      <c r="E44" s="387" t="s">
         <v>278</v>
       </c>
       <c r="F44" s="125"/>
@@ -14787,13 +14781,13 @@
       <c r="A46" s="270" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="324" t="s">
+      <c r="B46" s="323" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="271">
         <v>1748971798</v>
       </c>
-      <c r="D46" s="325">
+      <c r="D46" s="324">
         <v>85100</v>
       </c>
       <c r="E46" s="272" t="s">
@@ -17373,7 +17367,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="251"/>
-      <c r="D68" s="321">
+      <c r="D68" s="252">
         <v>375778</v>
       </c>
       <c r="E68" s="254" t="s">
@@ -17490,7 +17484,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="251"/>
-      <c r="D69" s="321">
+      <c r="D69" s="252">
         <v>351819</v>
       </c>
       <c r="E69" s="254" t="s">
@@ -17607,7 +17601,7 @@
         <v>78</v>
       </c>
       <c r="C70" s="251"/>
-      <c r="D70" s="321">
+      <c r="D70" s="252">
         <v>459192</v>
       </c>
       <c r="E70" s="254" t="s">
@@ -17724,8 +17718,8 @@
         <v>104</v>
       </c>
       <c r="C71" s="251"/>
-      <c r="D71" s="415">
-        <v>140310</v>
+      <c r="D71" s="252">
+        <v>162950</v>
       </c>
       <c r="E71" s="263" t="s">
         <v>302</v>
@@ -17841,7 +17835,7 @@
         <v>100</v>
       </c>
       <c r="C72" s="251"/>
-      <c r="D72" s="321">
+      <c r="D72" s="252">
         <v>556734</v>
       </c>
       <c r="E72" s="253" t="s">
@@ -17958,8 +17952,8 @@
         <v>82</v>
       </c>
       <c r="C73" s="251"/>
-      <c r="D73" s="415">
-        <v>474482</v>
+      <c r="D73" s="252">
+        <v>432035</v>
       </c>
       <c r="E73" s="254" t="s">
         <v>302</v>
@@ -18075,7 +18069,7 @@
         <v>197</v>
       </c>
       <c r="C74" s="251"/>
-      <c r="D74" s="321">
+      <c r="D74" s="252">
         <v>78918</v>
       </c>
       <c r="E74" s="254" t="s">
@@ -18192,7 +18186,7 @@
         <v>259</v>
       </c>
       <c r="C75" s="251"/>
-      <c r="D75" s="321">
+      <c r="D75" s="252">
         <v>90252</v>
       </c>
       <c r="E75" s="254" t="s">
@@ -18940,19 +18934,19 @@
       <c r="CR81" s="128"/>
     </row>
     <row r="82" spans="1:96">
-      <c r="A82" s="362" t="s">
+      <c r="A82" s="361" t="s">
         <v>212</v>
       </c>
-      <c r="B82" s="352" t="s">
+      <c r="B82" s="351" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="353" t="s">
+      <c r="C82" s="352" t="s">
         <v>209</v>
       </c>
-      <c r="D82" s="354">
+      <c r="D82" s="353">
         <v>12100</v>
       </c>
-      <c r="E82" s="355" t="s">
+      <c r="E82" s="354" t="s">
         <v>227</v>
       </c>
       <c r="F82" s="124"/>
@@ -19051,19 +19045,19 @@
       <c r="CR82" s="128"/>
     </row>
     <row r="83" spans="1:96">
-      <c r="A83" s="351" t="s">
+      <c r="A83" s="350" t="s">
         <v>211</v>
       </c>
-      <c r="B83" s="352" t="s">
+      <c r="B83" s="351" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="353" t="s">
+      <c r="C83" s="352" t="s">
         <v>209</v>
       </c>
-      <c r="D83" s="354">
+      <c r="D83" s="353">
         <v>14000</v>
       </c>
-      <c r="E83" s="355" t="s">
+      <c r="E83" s="354" t="s">
         <v>243</v>
       </c>
       <c r="F83" s="124"/>
@@ -19162,13 +19156,13 @@
       <c r="CR83" s="128"/>
     </row>
     <row r="84" spans="1:96">
-      <c r="A84" s="379" t="s">
+      <c r="A84" s="378" t="s">
         <v>222</v>
       </c>
-      <c r="B84" s="380" t="s">
+      <c r="B84" s="379" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="381">
+      <c r="C84" s="380">
         <v>4800</v>
       </c>
       <c r="D84" s="196"/>
@@ -19269,13 +19263,13 @@
       <c r="CR84" s="128"/>
     </row>
     <row r="85" spans="1:96">
-      <c r="A85" s="379" t="s">
+      <c r="A85" s="378" t="s">
         <v>218</v>
       </c>
-      <c r="B85" s="382" t="s">
+      <c r="B85" s="381" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="381">
+      <c r="C85" s="380">
         <v>6000</v>
       </c>
       <c r="D85" s="196"/>
@@ -19376,13 +19370,13 @@
       <c r="CR85" s="128"/>
     </row>
     <row r="86" spans="1:96">
-      <c r="A86" s="383" t="s">
+      <c r="A86" s="382" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="384" t="s">
+      <c r="B86" s="383" t="s">
         <v>221</v>
       </c>
-      <c r="C86" s="381">
+      <c r="C86" s="380">
         <v>3000</v>
       </c>
       <c r="D86" s="196"/>
@@ -19483,13 +19477,13 @@
       <c r="CR86" s="128"/>
     </row>
     <row r="87" spans="1:96">
-      <c r="A87" s="383" t="s">
+      <c r="A87" s="382" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="384" t="s">
+      <c r="B87" s="383" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="381">
+      <c r="C87" s="380">
         <v>200</v>
       </c>
       <c r="D87" s="196"/>
@@ -19812,7 +19806,7 @@
       <c r="CR89" s="128"/>
     </row>
     <row r="90" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A90" s="369"/>
+      <c r="A90" s="368"/>
       <c r="B90" s="48"/>
       <c r="C90" s="110"/>
       <c r="D90" s="196"/>
@@ -19913,14 +19907,14 @@
       <c r="CR90" s="128"/>
     </row>
     <row r="91" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A91" s="437" t="s">
+      <c r="A91" s="435" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="438"/>
-      <c r="C91" s="441"/>
+      <c r="B91" s="436"/>
+      <c r="C91" s="439"/>
       <c r="D91" s="197">
         <f>SUM(D37:D90)</f>
-        <v>6244482</v>
+        <v>6224675</v>
       </c>
       <c r="E91" s="193"/>
       <c r="F91" s="128"/>
@@ -20121,14 +20115,14 @@
       <c r="CR92" s="128"/>
     </row>
     <row r="93" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A93" s="437" t="s">
+      <c r="A93" s="435" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="438"/>
-      <c r="C93" s="438"/>
+      <c r="B93" s="436"/>
+      <c r="C93" s="436"/>
       <c r="D93" s="197">
         <f>D91+L93</f>
-        <v>6244482</v>
+        <v>6224675</v>
       </c>
       <c r="E93" s="193"/>
       <c r="F93" s="128"/>
@@ -31231,8 +31225,8 @@
   </sheetPr>
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -31258,28 +31252,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="471" t="s">
+      <c r="A1" s="449" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="472"/>
-      <c r="C1" s="472"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="473"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="451"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
+      <c r="I1" s="464"/>
+      <c r="J1" s="464"/>
+      <c r="K1" s="464"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="458" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="481"/>
-      <c r="E2" s="482"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="460"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -31300,13 +31294,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="474" t="s">
+      <c r="A3" s="452" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="475"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="475"/>
-      <c r="E3" s="476"/>
+      <c r="B3" s="453"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="454"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -31333,13 +31327,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="483" t="s">
+      <c r="A4" s="461" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="484"/>
-      <c r="C4" s="484"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="485"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
+      <c r="D4" s="462"/>
+      <c r="E4" s="463"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -31399,10 +31393,10 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="322">
+      <c r="Q5" s="321">
         <v>40500</v>
       </c>
-      <c r="R5" s="322" t="s">
+      <c r="R5" s="321" t="s">
         <v>177</v>
       </c>
     </row>
@@ -31441,10 +31435,10 @@
       </c>
       <c r="N6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="322">
+      <c r="Q6" s="321">
         <v>35000</v>
       </c>
-      <c r="R6" s="322" t="s">
+      <c r="R6" s="321" t="s">
         <v>178</v>
       </c>
     </row>
@@ -31481,10 +31475,10 @@
         <v>97</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="322">
+      <c r="Q7" s="321">
         <v>28100</v>
       </c>
-      <c r="R7" s="322" t="s">
+      <c r="R7" s="321" t="s">
         <v>179</v>
       </c>
     </row>
@@ -31492,7 +31486,7 @@
       <c r="A8" s="230"/>
       <c r="B8" s="216"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="332"/>
+      <c r="D8" s="331"/>
       <c r="E8" s="231"/>
       <c r="F8" s="7"/>
       <c r="G8" s="212"/>
@@ -31516,7 +31510,7 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="323">
+      <c r="Q8" s="322">
         <f>SUM(Q5:Q7)</f>
         <v>103600</v>
       </c>
@@ -31532,7 +31526,7 @@
         <v>37105</v>
       </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="332" t="s">
+      <c r="D9" s="331" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="246">
@@ -31573,7 +31567,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="332" t="s">
+      <c r="D10" s="331" t="s">
         <v>196</v>
       </c>
       <c r="E10" s="320">
@@ -31607,10 +31601,10 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21.75">
-      <c r="A11" s="366" t="s">
+      <c r="A11" s="365" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="367">
+      <c r="B11" s="366">
         <f>B6-B9-B10</f>
         <v>61628.612999999998</v>
       </c>
@@ -31684,8 +31678,8 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" s="245" customFormat="1" ht="21.75">
-      <c r="A13" s="366"/>
-      <c r="B13" s="367"/>
+      <c r="A13" s="365"/>
+      <c r="B13" s="366"/>
       <c r="C13" s="38"/>
       <c r="D13" s="288"/>
       <c r="E13" s="289"/>
@@ -31811,11 +31805,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="266"/>
-      <c r="I17" s="457" t="s">
+      <c r="I17" s="465" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="457"/>
-      <c r="K17" s="457"/>
+      <c r="J17" s="465"/>
+      <c r="K17" s="465"/>
       <c r="L17" s="294">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -31838,11 +31832,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="266"/>
-      <c r="I18" s="467" t="s">
+      <c r="I18" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="467"/>
-      <c r="K18" s="467"/>
+      <c r="J18" s="466"/>
+      <c r="K18" s="466"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -31854,21 +31848,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="477" t="s">
+      <c r="A19" s="455" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="478"/>
-      <c r="C19" s="478"/>
-      <c r="D19" s="478"/>
-      <c r="E19" s="479"/>
+      <c r="B19" s="456"/>
+      <c r="C19" s="456"/>
+      <c r="D19" s="456"/>
+      <c r="E19" s="457"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="462" t="s">
+      <c r="I19" s="473" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="462"/>
-      <c r="K19" s="462"/>
+      <c r="J19" s="473"/>
+      <c r="K19" s="473"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -31896,11 +31890,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="459" t="s">
+      <c r="I20" s="467" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="459"/>
-      <c r="K20" s="459"/>
+      <c r="J20" s="467"/>
+      <c r="K20" s="467"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -31956,11 +31950,11 @@
       <c r="E22" s="235">
         <v>351819</v>
       </c>
-      <c r="I22" s="462" t="s">
+      <c r="I22" s="473" t="s">
         <v>156</v>
       </c>
-      <c r="J22" s="462"/>
-      <c r="K22" s="462"/>
+      <c r="J22" s="473"/>
+      <c r="K22" s="473"/>
       <c r="L22" s="319">
         <v>20000</v>
       </c>
@@ -31985,11 +31979,11 @@
       <c r="E23" s="235">
         <v>558434</v>
       </c>
-      <c r="I23" s="454" t="s">
+      <c r="I23" s="474" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="455"/>
-      <c r="K23" s="456"/>
+      <c r="J23" s="475"/>
+      <c r="K23" s="476"/>
       <c r="L23" s="319">
         <v>40000</v>
       </c>
@@ -32014,11 +32008,11 @@
       <c r="E24" s="287">
         <v>480047</v>
       </c>
-      <c r="I24" s="462" t="s">
+      <c r="I24" s="473" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="462"/>
-      <c r="K24" s="462"/>
+      <c r="J24" s="473"/>
+      <c r="K24" s="473"/>
       <c r="L24" s="306">
         <v>30000</v>
       </c>
@@ -32043,11 +32037,11 @@
       <c r="E25" s="235">
         <v>162310</v>
       </c>
-      <c r="I25" s="462" t="s">
+      <c r="I25" s="473" t="s">
         <v>215</v>
       </c>
-      <c r="J25" s="462"/>
-      <c r="K25" s="462"/>
+      <c r="J25" s="473"/>
+      <c r="K25" s="473"/>
       <c r="L25" s="306">
         <v>20000</v>
       </c>
@@ -32059,24 +32053,24 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="21.75">
-      <c r="A26" s="327" t="s">
+      <c r="A26" s="326" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="328">
+      <c r="B26" s="327">
         <v>85100</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="330" t="s">
+      <c r="C26" s="328"/>
+      <c r="D26" s="329" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="331">
+      <c r="E26" s="330">
         <v>90252</v>
       </c>
-      <c r="I26" s="457" t="s">
+      <c r="I26" s="465" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="457"/>
-      <c r="K26" s="457"/>
+      <c r="J26" s="465"/>
+      <c r="K26" s="465"/>
       <c r="L26" s="294">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -32089,17 +32083,17 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" s="245" customFormat="1" ht="21.75">
-      <c r="A27" s="327" t="s">
+      <c r="A27" s="326" t="s">
         <v>277</v>
       </c>
-      <c r="B27" s="328">
+      <c r="B27" s="327">
         <v>17610</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="330" t="s">
+      <c r="C27" s="328"/>
+      <c r="D27" s="329" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="331">
+      <c r="E27" s="330">
         <v>78918</v>
       </c>
       <c r="L27" s="245">
@@ -32115,10 +32109,10 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="373" t="s">
+      <c r="A28" s="372" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="374">
+      <c r="B28" s="373">
         <v>145300</v>
       </c>
       <c r="C28" s="113"/>
@@ -32128,13 +32122,13 @@
       <c r="E28" s="235">
         <v>70000</v>
       </c>
-      <c r="I28" s="463" t="s">
+      <c r="I28" s="477" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="464"/>
-      <c r="K28" s="464"/>
-      <c r="L28" s="464"/>
-      <c r="M28" s="465"/>
+      <c r="J28" s="478"/>
+      <c r="K28" s="478"/>
+      <c r="L28" s="478"/>
+      <c r="M28" s="479"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="236" t="s">
@@ -32150,15 +32144,15 @@
       <c r="E29" s="235">
         <v>110000</v>
       </c>
-      <c r="I29" s="460" t="s">
+      <c r="I29" s="471" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="460"/>
-      <c r="K29" s="461"/>
-      <c r="L29" s="335">
+      <c r="J29" s="471"/>
+      <c r="K29" s="472"/>
+      <c r="L29" s="334">
         <v>213170</v>
       </c>
-      <c r="M29" s="336"/>
+      <c r="M29" s="335"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -32166,24 +32160,24 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" s="245" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="327" t="s">
+      <c r="A30" s="326" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="328">
+      <c r="B30" s="327">
         <v>239840</v>
       </c>
-      <c r="C30" s="329"/>
-      <c r="D30" s="330" t="s">
+      <c r="C30" s="328"/>
+      <c r="D30" s="329" t="s">
         <v>192</v>
       </c>
-      <c r="E30" s="331">
+      <c r="E30" s="330">
         <v>375407</v>
       </c>
-      <c r="I30" s="363"/>
-      <c r="J30" s="363"/>
-      <c r="K30" s="364"/>
-      <c r="L30" s="335"/>
-      <c r="M30" s="336"/>
+      <c r="I30" s="362"/>
+      <c r="J30" s="362"/>
+      <c r="K30" s="363"/>
+      <c r="L30" s="334"/>
+      <c r="M30" s="335"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -32191,28 +32185,28 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="21.75">
-      <c r="A31" s="327" t="s">
+      <c r="A31" s="326" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="328">
+      <c r="B31" s="327">
         <v>17000</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="330" t="s">
+      <c r="D31" s="329" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="331">
+      <c r="E31" s="330">
         <v>104712</v>
       </c>
-      <c r="I31" s="458" t="s">
+      <c r="I31" s="483" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="459"/>
-      <c r="K31" s="459"/>
-      <c r="L31" s="334">
+      <c r="J31" s="467"/>
+      <c r="K31" s="467"/>
+      <c r="L31" s="333">
         <v>79500</v>
       </c>
-      <c r="M31" s="334" t="s">
+      <c r="M31" s="333" t="s">
         <v>191</v>
       </c>
       <c r="N31" s="7"/>
@@ -32235,15 +32229,15 @@
       <c r="E32" s="235">
         <v>385590</v>
       </c>
-      <c r="I32" s="458" t="s">
+      <c r="I32" s="483" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="459"/>
-      <c r="K32" s="459"/>
-      <c r="L32" s="334">
+      <c r="J32" s="467"/>
+      <c r="K32" s="467"/>
+      <c r="L32" s="333">
         <v>47500</v>
       </c>
-      <c r="M32" s="334" t="s">
+      <c r="M32" s="333" t="s">
         <v>149</v>
       </c>
       <c r="N32" s="7"/>
@@ -32253,28 +32247,28 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="21.75">
-      <c r="A33" s="327" t="s">
+      <c r="A33" s="326" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="328">
+      <c r="B33" s="327">
         <v>312098</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="330" t="s">
+      <c r="D33" s="329" t="s">
         <v>272</v>
       </c>
-      <c r="E33" s="331">
+      <c r="E33" s="330">
         <v>64717</v>
       </c>
-      <c r="I33" s="451" t="s">
+      <c r="I33" s="480" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="452"/>
-      <c r="K33" s="453"/>
-      <c r="L33" s="334">
+      <c r="J33" s="481"/>
+      <c r="K33" s="482"/>
+      <c r="L33" s="333">
         <v>50000</v>
       </c>
-      <c r="M33" s="334" t="s">
+      <c r="M33" s="333" t="s">
         <v>150</v>
       </c>
       <c r="N33" s="7"/>
@@ -32284,26 +32278,26 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A34" s="375" t="s">
+      <c r="A34" s="374" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="376">
+      <c r="B34" s="375">
         <v>106250</v>
       </c>
-      <c r="C34" s="413"/>
-      <c r="D34" s="377" t="s">
+      <c r="C34" s="412"/>
+      <c r="D34" s="376" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="378">
+      <c r="E34" s="377">
         <v>26100</v>
       </c>
-      <c r="I34" s="454"/>
-      <c r="J34" s="455"/>
-      <c r="K34" s="456"/>
-      <c r="L34" s="334">
+      <c r="I34" s="474"/>
+      <c r="J34" s="475"/>
+      <c r="K34" s="476"/>
+      <c r="L34" s="333">
         <v>10000</v>
       </c>
-      <c r="M34" s="334"/>
+      <c r="M34" s="333"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -32311,21 +32305,21 @@
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" ht="21.75">
-      <c r="A35" s="392"/>
-      <c r="B35" s="393"/>
+      <c r="A35" s="391"/>
+      <c r="B35" s="392"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="395"/>
-      <c r="E35" s="396"/>
-      <c r="I35" s="457" t="s">
+      <c r="D35" s="394"/>
+      <c r="E35" s="395"/>
+      <c r="I35" s="465" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="457"/>
-      <c r="K35" s="457"/>
-      <c r="L35" s="333">
+      <c r="J35" s="465"/>
+      <c r="K35" s="465"/>
+      <c r="L35" s="332">
         <f>L29-L31-L32-L33-L34</f>
         <v>26170</v>
       </c>
-      <c r="M35" s="333"/>
+      <c r="M35" s="332"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -32333,11 +32327,11 @@
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="21.75">
-      <c r="A36" s="392"/>
-      <c r="B36" s="393"/>
-      <c r="C36" s="394"/>
-      <c r="D36" s="395"/>
-      <c r="E36" s="396"/>
+      <c r="A36" s="391"/>
+      <c r="B36" s="392"/>
+      <c r="C36" s="393"/>
+      <c r="D36" s="394"/>
+      <c r="E36" s="395"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -32350,11 +32344,11 @@
       <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" ht="21.75">
-      <c r="A37" s="392"/>
-      <c r="B37" s="393"/>
-      <c r="C37" s="394"/>
-      <c r="D37" s="395"/>
-      <c r="E37" s="396"/>
+      <c r="A37" s="391"/>
+      <c r="B37" s="392"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="394"/>
+      <c r="E37" s="395"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -32367,11 +32361,11 @@
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" ht="21.75">
-      <c r="A38" s="392"/>
-      <c r="B38" s="393"/>
-      <c r="C38" s="394"/>
-      <c r="D38" s="395"/>
-      <c r="E38" s="396"/>
+      <c r="A38" s="391"/>
+      <c r="B38" s="392"/>
+      <c r="C38" s="393"/>
+      <c r="D38" s="394"/>
+      <c r="E38" s="395"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -32385,10 +32379,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="7"/>
-      <c r="B39" s="390"/>
+      <c r="B39" s="389"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="391"/>
-      <c r="E39" s="397"/>
+      <c r="D39" s="390"/>
+      <c r="E39" s="396"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -32402,10 +32396,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="7"/>
-      <c r="B40" s="390"/>
+      <c r="B40" s="389"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="391"/>
-      <c r="E40" s="397"/>
+      <c r="D40" s="390"/>
+      <c r="E40" s="396"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -32419,10 +32413,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="7"/>
-      <c r="B41" s="390"/>
+      <c r="B41" s="389"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="391"/>
-      <c r="E41" s="397"/>
+      <c r="D41" s="390"/>
+      <c r="E41" s="396"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -35020,16 +35014,11 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -35038,11 +35027,16 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -35076,10 +35070,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="484" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="487"/>
+      <c r="B1" s="485"/>
       <c r="C1" s="239">
         <f>C73+G13+E1</f>
         <v>203610</v>
@@ -35093,13 +35087,13 @@
       <c r="C2" s="242"/>
       <c r="D2" s="242"/>
       <c r="E2" s="242"/>
-      <c r="F2" s="357" t="s">
+      <c r="F2" s="356" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="358">
+      <c r="G2" s="357">
         <v>166900</v>
       </c>
-      <c r="H2" s="359"/>
+      <c r="H2" s="358"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="228" t="s">
@@ -35114,18 +35108,18 @@
       <c r="D3" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="340" t="s">
+      <c r="F3" s="339" t="s">
         <v>262</v>
       </c>
       <c r="G3" s="303">
         <v>19810</v>
       </c>
-      <c r="H3" s="341"/>
-      <c r="J3" s="490" t="s">
+      <c r="H3" s="340"/>
+      <c r="J3" s="488" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="490"/>
-      <c r="L3" s="490"/>
+      <c r="K3" s="488"/>
+      <c r="L3" s="488"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="24" t="s">
@@ -35139,9 +35133,9 @@
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="59"/>
-      <c r="F4" s="360"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="361"/>
+      <c r="F4" s="359"/>
+      <c r="G4" s="355"/>
+      <c r="H4" s="360"/>
       <c r="I4" s="301"/>
       <c r="J4" s="296" t="s">
         <v>122</v>
@@ -35160,14 +35154,14 @@
       <c r="B5" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="365">
+      <c r="C5" s="364">
         <v>20000</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="59"/>
-      <c r="F5" s="340"/>
+      <c r="F5" s="339"/>
       <c r="G5" s="303"/>
-      <c r="H5" s="341"/>
+      <c r="H5" s="340"/>
       <c r="I5" s="301"/>
       <c r="J5" s="296" t="s">
         <v>121</v>
@@ -35186,14 +35180,14 @@
       <c r="B6" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="365">
+      <c r="C6" s="364">
         <v>21400</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="59"/>
-      <c r="F6" s="340"/>
+      <c r="F6" s="339"/>
       <c r="G6" s="303"/>
-      <c r="H6" s="341"/>
+      <c r="H6" s="340"/>
       <c r="I6" s="301"/>
       <c r="J6" s="297" t="s">
         <v>122</v>
@@ -35212,14 +35206,14 @@
       <c r="B7" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="365">
+      <c r="C7" s="364">
         <v>8100</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="59"/>
-      <c r="F7" s="340"/>
+      <c r="F7" s="339"/>
       <c r="G7" s="303"/>
-      <c r="H7" s="341"/>
+      <c r="H7" s="340"/>
       <c r="I7" s="302"/>
       <c r="J7" s="297" t="s">
         <v>121</v>
@@ -35238,14 +35232,14 @@
       <c r="B8" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="365">
+      <c r="C8" s="364">
         <v>8000</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="59"/>
-      <c r="F8" s="340"/>
+      <c r="F8" s="339"/>
       <c r="G8" s="303"/>
-      <c r="H8" s="341"/>
+      <c r="H8" s="340"/>
       <c r="J8" s="297" t="s">
         <v>121</v>
       </c>
@@ -35263,14 +35257,14 @@
       <c r="B9" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="365">
+      <c r="C9" s="364">
         <v>900</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="340"/>
+      <c r="F9" s="339"/>
       <c r="G9" s="303"/>
-      <c r="H9" s="341"/>
+      <c r="H9" s="340"/>
       <c r="J9" s="296" t="s">
         <v>117</v>
       </c>
@@ -35288,19 +35282,19 @@
       <c r="B10" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="365">
+      <c r="C10" s="364">
         <v>10600</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="342" t="s">
+      <c r="F10" s="341" t="s">
         <v>152</v>
       </c>
       <c r="G10" s="304">
         <f>SUM(G2:G9)</f>
         <v>186710</v>
       </c>
-      <c r="H10" s="343"/>
+      <c r="H10" s="342"/>
       <c r="J10" s="296" t="s">
         <v>122</v>
       </c>
@@ -35318,18 +35312,18 @@
       <c r="B11" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="368">
+      <c r="C11" s="367">
         <v>7000</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="59"/>
-      <c r="F11" s="344" t="s">
+      <c r="F11" s="343" t="s">
         <v>253</v>
       </c>
       <c r="G11" s="306">
         <v>143600</v>
       </c>
-      <c r="H11" s="345"/>
+      <c r="H11" s="344"/>
       <c r="J11" s="296" t="s">
         <v>121</v>
       </c>
@@ -35347,14 +35341,14 @@
       <c r="B12" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="370">
+      <c r="C12" s="369">
         <v>7000</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="346"/>
+      <c r="F12" s="345"/>
       <c r="G12" s="293"/>
-      <c r="H12" s="347"/>
+      <c r="H12" s="346"/>
       <c r="J12" s="297" t="s">
         <v>121</v>
       </c>
@@ -35372,17 +35366,17 @@
       <c r="B13" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="365">
+      <c r="C13" s="364">
         <v>13000</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="348"/>
-      <c r="G13" s="349">
+      <c r="F13" s="347"/>
+      <c r="G13" s="348">
         <f>G10-G11</f>
         <v>43110</v>
       </c>
-      <c r="H13" s="350"/>
+      <c r="H13" s="349"/>
       <c r="J13" s="297" t="s">
         <v>137</v>
       </c>
@@ -35400,7 +35394,7 @@
       <c r="B14" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="365">
+      <c r="C14" s="364">
         <v>8600</v>
       </c>
       <c r="D14" s="24"/>
@@ -35422,7 +35416,7 @@
       <c r="B15" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="371">
+      <c r="C15" s="370">
         <v>9400</v>
       </c>
       <c r="D15" s="24"/>
@@ -35438,22 +35432,22 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="372" t="s">
+      <c r="A16" s="371" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="372" t="s">
+      <c r="B16" s="371" t="s">
         <v>280</v>
       </c>
       <c r="C16" s="284">
         <v>900</v>
       </c>
-      <c r="D16" s="372"/>
+      <c r="D16" s="371"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="494" t="s">
+      <c r="F16" s="492" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="495"/>
-      <c r="H16" s="496"/>
+      <c r="G16" s="493"/>
+      <c r="H16" s="494"/>
       <c r="J16" s="297" t="s">
         <v>122</v>
       </c>
@@ -35471,16 +35465,16 @@
       <c r="B17" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="388">
         <v>1800</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="211"/>
-      <c r="F17" s="491" t="s">
+      <c r="F17" s="489" t="s">
         <v>238</v>
       </c>
-      <c r="G17" s="492"/>
-      <c r="H17" s="493"/>
+      <c r="G17" s="490"/>
+      <c r="H17" s="491"/>
       <c r="J17" s="297" t="s">
         <v>121</v>
       </c>
@@ -35498,18 +35492,18 @@
       <c r="B18" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="365">
+      <c r="C18" s="364">
         <v>22900</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="211"/>
-      <c r="F18" s="408" t="s">
+      <c r="F18" s="407" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="414">
+      <c r="G18" s="413">
         <v>26500</v>
       </c>
-      <c r="H18" s="409" t="s">
+      <c r="H18" s="408" t="s">
         <v>236</v>
       </c>
       <c r="J18" s="297" t="s">
@@ -35529,18 +35523,18 @@
       <c r="B19" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="365">
+      <c r="C19" s="364">
         <v>12000</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="211"/>
-      <c r="F19" s="398" t="s">
+      <c r="F19" s="397" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="306">
         <v>39500</v>
       </c>
-      <c r="H19" s="399" t="s">
+      <c r="H19" s="398" t="s">
         <v>236</v>
       </c>
       <c r="J19" s="296" t="s">
@@ -35560,18 +35554,18 @@
       <c r="B20" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="412">
+      <c r="C20" s="411">
         <v>3400</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="211"/>
-      <c r="F20" s="398" t="s">
+      <c r="F20" s="397" t="s">
         <v>121</v>
       </c>
       <c r="G20" s="306">
         <v>6000</v>
       </c>
-      <c r="H20" s="399" t="s">
+      <c r="H20" s="398" t="s">
         <v>273</v>
       </c>
       <c r="J20" s="298" t="s">
@@ -35591,18 +35585,18 @@
       <c r="B21" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="365">
+      <c r="C21" s="364">
         <v>5500</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="211"/>
-      <c r="F21" s="408" t="s">
+      <c r="F21" s="407" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="414">
+      <c r="G21" s="413">
         <v>23500</v>
       </c>
-      <c r="H21" s="409" t="s">
+      <c r="H21" s="408" t="s">
         <v>273</v>
       </c>
       <c r="J21" s="299" t="s">
@@ -35618,16 +35612,16 @@
     <row r="22" spans="1:12">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="365"/>
+      <c r="C22" s="364"/>
       <c r="D22" s="24"/>
       <c r="E22" s="211"/>
-      <c r="F22" s="398" t="s">
+      <c r="F22" s="397" t="s">
         <v>122</v>
       </c>
       <c r="G22" s="306">
         <v>39500</v>
       </c>
-      <c r="H22" s="399" t="s">
+      <c r="H22" s="398" t="s">
         <v>274</v>
       </c>
       <c r="J22" s="297" t="s">
@@ -35643,16 +35637,16 @@
     <row r="23" spans="1:12">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="365"/>
+      <c r="C23" s="364"/>
       <c r="D23" s="24"/>
       <c r="E23" s="211"/>
-      <c r="F23" s="398" t="s">
+      <c r="F23" s="397" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="306">
         <v>4000</v>
       </c>
-      <c r="H23" s="399" t="s">
+      <c r="H23" s="398" t="s">
         <v>278</v>
       </c>
       <c r="J23" s="300" t="s">
@@ -35668,16 +35662,16 @@
     <row r="24" spans="1:12">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="365"/>
+      <c r="C24" s="364"/>
       <c r="D24" s="24"/>
       <c r="E24" s="211"/>
-      <c r="F24" s="408" t="s">
+      <c r="F24" s="407" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="414">
+      <c r="G24" s="413">
         <v>2500</v>
       </c>
-      <c r="H24" s="409" t="s">
+      <c r="H24" s="408" t="s">
         <v>278</v>
       </c>
       <c r="J24" s="297"/>
@@ -35687,16 +35681,16 @@
     <row r="25" spans="1:12" ht="15">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="365"/>
+      <c r="C25" s="364"/>
       <c r="D25" s="24"/>
       <c r="E25" s="211"/>
-      <c r="F25" s="398" t="s">
+      <c r="F25" s="397" t="s">
         <v>121</v>
       </c>
       <c r="G25" s="306">
         <v>9000</v>
       </c>
-      <c r="H25" s="399" t="s">
+      <c r="H25" s="398" t="s">
         <v>297</v>
       </c>
       <c r="J25" s="295" t="s">
@@ -35711,116 +35705,116 @@
     <row r="26" spans="1:12">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="365"/>
+      <c r="C26" s="364"/>
       <c r="D26" s="24"/>
       <c r="E26" s="211"/>
-      <c r="F26" s="398" t="s">
+      <c r="F26" s="397" t="s">
         <v>122</v>
       </c>
       <c r="G26" s="306">
         <v>2000</v>
       </c>
-      <c r="H26" s="345" t="s">
+      <c r="H26" s="344" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="365"/>
+      <c r="C27" s="364"/>
       <c r="D27" s="24"/>
       <c r="E27" s="211"/>
-      <c r="F27" s="398" t="s">
+      <c r="F27" s="397" t="s">
         <v>122</v>
       </c>
       <c r="G27" s="306">
         <v>3500</v>
       </c>
-      <c r="H27" s="345" t="s">
+      <c r="H27" s="344" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="365"/>
+      <c r="C28" s="364"/>
       <c r="D28" s="24"/>
       <c r="E28" s="211"/>
-      <c r="F28" s="398" t="s">
+      <c r="F28" s="397" t="s">
         <v>121</v>
       </c>
       <c r="G28" s="306">
         <v>4000</v>
       </c>
-      <c r="H28" s="399" t="s">
+      <c r="H28" s="398" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="365"/>
+      <c r="C29" s="364"/>
       <c r="D29" s="24"/>
       <c r="E29" s="211"/>
-      <c r="F29" s="398" t="s">
+      <c r="F29" s="397" t="s">
         <v>121</v>
       </c>
       <c r="G29" s="306">
         <v>3500</v>
       </c>
-      <c r="H29" s="399" t="s">
+      <c r="H29" s="398" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="365"/>
+      <c r="C30" s="364"/>
       <c r="D30" s="24"/>
       <c r="E30" s="211"/>
-      <c r="F30" s="410"/>
-      <c r="G30" s="407"/>
-      <c r="H30" s="411"/>
+      <c r="F30" s="409"/>
+      <c r="G30" s="406"/>
+      <c r="H30" s="410"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="365"/>
+      <c r="C31" s="364"/>
       <c r="D31" s="24"/>
       <c r="E31" s="211"/>
-      <c r="F31" s="410"/>
-      <c r="G31" s="407"/>
-      <c r="H31" s="411"/>
+      <c r="F31" s="409"/>
+      <c r="G31" s="406"/>
+      <c r="H31" s="410"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="326"/>
+      <c r="C32" s="325"/>
       <c r="D32" s="24"/>
       <c r="E32" s="211"/>
-      <c r="F32" s="400" t="s">
+      <c r="F32" s="399" t="s">
         <v>242</v>
       </c>
-      <c r="G32" s="337">
+      <c r="G32" s="336">
         <v>1600</v>
       </c>
-      <c r="H32" s="401" t="s">
+      <c r="H32" s="400" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="326"/>
+      <c r="C33" s="325"/>
       <c r="D33" s="24"/>
       <c r="E33" s="211"/>
-      <c r="F33" s="402" t="s">
+      <c r="F33" s="401" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="337">
+      <c r="G33" s="336">
         <v>182000</v>
       </c>
-      <c r="H33" s="403" t="s">
+      <c r="H33" s="402" t="s">
         <v>240</v>
       </c>
     </row>
@@ -35830,13 +35824,13 @@
       <c r="C34" s="305"/>
       <c r="D34" s="24"/>
       <c r="E34" s="211"/>
-      <c r="F34" s="402" t="s">
+      <c r="F34" s="401" t="s">
         <v>241</v>
       </c>
-      <c r="G34" s="337">
+      <c r="G34" s="336">
         <v>3600</v>
       </c>
-      <c r="H34" s="403" t="s">
+      <c r="H34" s="402" t="s">
         <v>240</v>
       </c>
     </row>
@@ -35846,14 +35840,14 @@
       <c r="C35" s="305"/>
       <c r="D35" s="24"/>
       <c r="E35" s="59"/>
-      <c r="F35" s="404" t="s">
+      <c r="F35" s="403" t="s">
         <v>203</v>
       </c>
-      <c r="G35" s="405">
+      <c r="G35" s="404">
         <f>SUM(G18:G34)</f>
         <v>350700</v>
       </c>
-      <c r="H35" s="406"/>
+      <c r="H35" s="405"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="24"/>
@@ -36115,10 +36109,10 @@
       <c r="E72" s="280"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="488" t="s">
+      <c r="A73" s="486" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="489"/>
+      <c r="B73" s="487"/>
       <c r="C73" s="264">
         <f>SUM(C4:C72)</f>
         <v>160500</v>
